--- a/SupersNew/characters/Hellcat.xlsx
+++ b/SupersNew/characters/Hellcat.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="308">
   <si>
     <t>Name</t>
   </si>
@@ -905,9 +905,6 @@
   </si>
   <si>
     <t>2d8 + Muscle Physical Damage</t>
-  </si>
-  <si>
-    <t>Hellcat</t>
   </si>
   <si>
     <t>Chase</t>
@@ -1170,7 +1167,71 @@
     <t>Dmg:</t>
   </si>
   <si>
-    <t>2d8+d6</t>
+    <t>Level Ups</t>
+  </si>
+  <si>
+    <t>Hellcat (LV 1)</t>
+  </si>
+  <si>
+    <t>Melee Weapon</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Abadi"/>
+        <family val="2"/>
+      </rPr>
+      <t>Damage +1d6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Abadi"/>
+        <family val="2"/>
+      </rPr>
+      <t>Device</t>
+    </r>
+  </si>
+  <si>
+    <t>2d8+2d6</t>
+  </si>
+  <si>
+    <t>Combat Trng -- +1 Strike, Dodge, Melee Weapon Power</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1500,11 +1561,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1521,58 +1637,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2052,10 +2116,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,33 +2139,37 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="6"/>
-      <c r="I1" s="3"/>
+      <c r="I1" s="33" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2163,7 +2231,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>7</v>
+        <v>307</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -2186,7 +2254,10 @@
         <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F48,2,FALSE))</f>
         <v>14</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4">
+        <f>F7+1</f>
+        <v>15</v>
+      </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -2208,7 +2279,10 @@
         <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F48,3,FALSE))</f>
         <v>12</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4">
+        <f>F8</f>
+        <v>12</v>
+      </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -2230,7 +2304,10 @@
         <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F48,4,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4">
+        <f>F9</f>
+        <v>11</v>
+      </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -2253,8 +2330,8 @@
         <v>13</v>
       </c>
       <c r="G10" s="4">
-        <f>F10+1</f>
-        <v>14</v>
+        <f>F10+4</f>
+        <v>17</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -2277,7 +2354,10 @@
         <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F48,6,FALSE))</f>
         <v>10</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4">
+        <f>F11</f>
+        <v>10</v>
+      </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -2336,10 +2416,10 @@
       <c r="D15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="F15" s="26"/>
+      <c r="E15" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15" s="41"/>
       <c r="G15" s="9" t="s">
         <v>77</v>
       </c>
@@ -2353,14 +2433,14 @@
         <v>6</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="24"/>
+      <c r="D16" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -2375,7 +2455,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2386,7 +2466,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7">
         <f>SUM(D20:D37)+30</f>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -2424,301 +2504,343 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="34">
+        <v>20</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" s="34">
+        <v>1</v>
+      </c>
+      <c r="I20" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="36">
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="34">
         <v>20</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E22" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F22" s="34">
+        <v>0</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="H22" s="34">
+        <v>4</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="34">
+        <v>20</v>
+      </c>
+      <c r="E25" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="F25" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H25" s="34">
+        <v>2</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" s="34">
+        <v>20</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" s="34">
         <v>1</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I28" s="24" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="33" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22" s="36" t="s">
+    <row r="29" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="D30" s="34">
+        <v>20</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="H30" s="34">
+        <v>1</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="29">
+        <v>20</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="29">
+        <v>10</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="H33" s="29">
+        <v>0</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D34" s="34">
         <v>20</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E34" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="F22" s="36">
-        <v>0</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="H22" s="36">
-        <v>4</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="35" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25" s="36">
-        <v>20</v>
-      </c>
-      <c r="E25" s="36" t="s">
+      <c r="F34" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="F25" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="G25" s="38" t="s">
+      <c r="G34" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H34" s="34">
         <v>2</v>
       </c>
-      <c r="I25" s="32" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="34" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="D28" s="36">
-        <v>20</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="H28" s="36">
-        <v>1</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="33" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="D30" s="36">
-        <v>20</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="H30" s="36">
-        <v>1</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="33" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="43">
-        <v>20</v>
-      </c>
-      <c r="E32" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="H32" s="43">
-        <v>0</v>
-      </c>
-      <c r="I32" s="45" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="D33" s="43">
-        <v>10</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="H33" s="43">
-        <v>0</v>
-      </c>
-      <c r="I33" s="45" t="s">
-        <v>297</v>
+      <c r="I34" s="24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="25" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="53">
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:H31"/>
@@ -2764,6 +2886,14 @@
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="93" orientation="landscape" r:id="rId1"/>
@@ -4533,11 +4663,11 @@
       <c r="A1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
@@ -5009,28 +5139,28 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="47">
         <v>20</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="47">
         <v>1</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="47">
         <v>4</v>
       </c>
       <c r="I4" s="20" t="s">
@@ -5038,27 +5168,27 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="20" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="19" t="s">
         <v>256</v>
       </c>
@@ -5093,28 +5223,28 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="47">
         <v>20</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="47">
         <v>1</v>
       </c>
       <c r="I8" s="20" t="s">
@@ -5122,41 +5252,41 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="20" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="47">
         <v>10</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="47">
         <v>0</v>
       </c>
       <c r="I10" s="20" t="s">
@@ -5164,14 +5294,14 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="189" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="20" t="s">
         <v>263</v>
       </c>
@@ -5206,28 +5336,28 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="47">
         <v>20</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="47">
         <v>0</v>
       </c>
       <c r="I13" s="20" t="s">
@@ -5235,14 +5365,14 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="20" t="s">
         <v>266</v>
       </c>
@@ -5277,28 +5407,28 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="47">
         <v>20</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="47">
         <v>2</v>
       </c>
       <c r="I16" s="20" t="s">
@@ -5306,27 +5436,27 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="20" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="20" t="s">
         <v>270</v>
       </c>
@@ -5419,28 +5549,28 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="47">
         <v>20</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="47">
         <v>2</v>
       </c>
       <c r="I22" s="23" t="s">
@@ -5448,27 +5578,27 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="20" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
       <c r="I24" s="20" t="s">
         <v>276</v>
       </c>
@@ -5610,11 +5740,11 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
@@ -5625,11 +5755,11 @@
       <c r="A2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="10" t="s">
         <v>80</v>
       </c>
@@ -5862,8 +5992,8 @@
       <c r="D15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="9" t="s">
         <v>77</v>
       </c>
@@ -5880,7 +6010,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -5895,7 +6025,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -5905,17 +6035,17 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="24"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -5936,26 +6066,26 @@
       <c r="A21" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B21" s="31" t="str">
+      <c r="B21" s="50" t="str">
         <f>VLOOKUP(B19,'Day Jobs'!A3:F15,3,FALSE)</f>
         <v>Improvise (CW), Perform (CW), Lie (CW), Crafty (RS)</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="29" t="str">
+      <c r="B22" s="48" t="str">
         <f>VLOOKUP(B19,'Day Jobs'!A3:F15,4,FALSE)</f>
         <v>Big Personality</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -5966,21 +6096,21 @@
       <c r="A23" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="29" t="str">
+      <c r="B23" s="48" t="str">
         <f>VLOOKUP(B19,'Day Jobs'!A3:F15,5,FALSE)</f>
         <v>Quick Change</v>
       </c>
-      <c r="C23" s="29"/>
+      <c r="C23" s="48"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="29" t="str">
+      <c r="B24" s="48" t="str">
         <f>VLOOKUP(B19,'Day Jobs'!A3:F15,6,FALSE)</f>
         <v>Star Material</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="48"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
